--- a/실무_엑셀_예제_파일/Chapter03/03-002.xlsx
+++ b/실무_엑셀_예제_파일/Chapter03/03-002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀-예제\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC04C33-531E-4EF1-978A-11DC776D91DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E8426-8337-4D45-BC18-758F1E5E3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{29C833D3-051F-4E67-923B-E7C62930983B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{29C833D3-051F-4E67-923B-E7C62930983B}"/>
   </bookViews>
   <sheets>
     <sheet name="0지우기" sheetId="1" r:id="rId1"/>
@@ -245,11 +245,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="mm\/dd"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ \(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;\ dd&quot;일&quot;\ \(aaaa\)"/>
     <numFmt numFmtId="179" formatCode="[DBNum4]General"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,##0;\-;@"/>
+    <numFmt numFmtId="182" formatCode="yyyy&quot;년&quot;mm&quot;월&quot;"/>
+    <numFmt numFmtId="183" formatCode="000000"/>
+    <numFmt numFmtId="184" formatCode="[Blue]\▲#,##0;[Red]\▼#,##0;\-;@"/>
+    <numFmt numFmtId="186" formatCode="[DBNum4]&quot;일&quot;&quot;금&quot;* General"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -477,9 +482,6 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,38 +497,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,7 +527,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,29 +858,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D81E366-C1EC-4432-941D-424203ACB726}">
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
     <col min="3" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="33.625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="33.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" ht="10.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="2:10" ht="10.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -901,23 +908,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="27">
         <v>3</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="27">
         <v>3</v>
       </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27">
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -927,23 +934,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="27">
         <v>3</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="27">
         <v>4</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="27">
         <v>4</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -953,223 +960,223 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27">
         <v>4</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="27">
         <v>0</v>
       </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="27">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27">
         <v>4</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="27">
         <v>3</v>
       </c>
-      <c r="D9" s="23">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
         <v>2</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="27">
         <v>3</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27">
         <v>4</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="27">
         <v>4</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="27">
         <v>2</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27">
         <v>3</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="27">
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="27">
         <v>3</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="27">
         <v>4</v>
       </c>
-      <c r="D12" s="23">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27">
         <v>2</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="27">
         <v>4</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="27">
         <v>4</v>
       </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="E13" s="27">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="27">
         <v>4</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="27">
         <v>0</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="27">
         <v>4</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="27">
         <v>4</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="27">
         <v>3</v>
       </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>1</v>
-      </c>
-      <c r="G15" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="27">
         <v>4</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="27">
         <v>3</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="27">
         <v>4</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="27">
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="27">
         <v>3</v>
       </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1186,25 +1193,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67875C3D-9D03-42C1-915C-AE06BD1BEFAF}">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="5.08203125" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1212,14 +1221,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="10">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="28">
         <v>44197</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>44197</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1227,14 +1236,14 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="28">
         <v>44236</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="13">
         <v>44236</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1242,77 +1251,77 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="28">
         <v>44255</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>44255</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>44197</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="28">
         <v>44271</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <v>44271</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>44197</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="28">
         <v>44312</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>44312</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>44197</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="28">
         <v>44362</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>44362</v>
       </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="28">
         <v>44396</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>44396</v>
       </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="28">
         <v>44429</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="13">
         <v>44429</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,108 +1333,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAFC4F0-66FE-43FD-847E-14F11D8AB196}">
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="29">
         <v>5930</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="30">
         <v>10.47</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="29">
         <v>5935</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="30">
         <v>-3.2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="29">
         <v>660</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="30">
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="29">
         <v>207940</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="30">
         <v>-9.17</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="29">
         <v>35420</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="30">
         <v>9.09</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="29">
         <v>68270</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="30">
         <v>5.14</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1441,30 +1452,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AE1691-4EDE-455D-8E91-61A734858200}">
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="2:8" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:8" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="31">
@@ -1472,13 +1485,12 @@
         <v>212000</v>
       </c>
       <c r="D4" s="31"/>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="2:8" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:8" ht="6.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>25300</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>55100</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -1579,7 +1591,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -1594,13 +1606,13 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="19">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="17">
         <f>SUM(E7:E12)</f>
         <v>212000</v>
       </c>
